--- a/data/trans_camb/P42C_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R2-Clase-trans_camb.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8287358396605838</v>
+        <v>0.2571944622148715</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-11.08411122122095</v>
+        <v>-11.21226936455103</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>18.4224027618527</v>
+        <v>16.90423358926753</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.084895890293415</v>
+        <v>5.894688838253337</v>
       </c>
     </row>
     <row r="7">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.01332123192252477</v>
+        <v>0.005292881050390563</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1781980099469073</v>
+        <v>-0.1799536599009635</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3510976270073496</v>
+        <v>0.3224066779999714</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1210189393562331</v>
+        <v>0.1172893677717014</v>
       </c>
     </row>
     <row r="10">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.032178227593532</v>
+        <v>6.140140431925436</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.558964143428762</v>
+        <v>-10.07921762352745</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>22.08557080227935</v>
+        <v>22.00458428265073</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.868851530369762</v>
+        <v>7.322695437118024</v>
       </c>
     </row>
     <row r="13">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.0913530105448121</v>
+        <v>0.09002826624124934</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1516039013237777</v>
+        <v>-0.1582176440863921</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4029229667978723</v>
+        <v>0.4112845929860683</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1282774059696411</v>
+        <v>0.1392321479567467</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.521706448539908</v>
+        <v>6.083166397127146</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.503159370359717</v>
+        <v>-5.344834375786492</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>24.15890723713396</v>
+        <v>23.23135922554044</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.84848697818452</v>
+        <v>13.07014972052635</v>
       </c>
     </row>
     <row r="19">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.09539805617024931</v>
+        <v>0.07815500289024996</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.07099472654070206</v>
+        <v>-0.06731704294040869</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3612277437821218</v>
+        <v>0.3395407510905742</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1870874371422994</v>
+        <v>0.190356253329464</v>
       </c>
     </row>
     <row r="22">
@@ -836,7 +836,7 @@
         <v>7.612585404262573</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.208677046898399</v>
+        <v>1.20867704689841</v>
       </c>
     </row>
     <row r="23">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.465798755971559</v>
+        <v>3.172433576632547</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.967505522989322</v>
+        <v>-3.482513770267881</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>12.47465310090109</v>
+        <v>12.25742243089978</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.079399830439728</v>
+        <v>6.014334093541033</v>
       </c>
     </row>
     <row r="25">
@@ -878,7 +878,7 @@
         <v>0.0974901580891836</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.01547885640992779</v>
+        <v>0.01547885640992793</v>
       </c>
     </row>
     <row r="26">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.04322004062203257</v>
+        <v>0.0394927283815878</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.04859676808426956</v>
+        <v>-0.04307195060825179</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1643977288624423</v>
+        <v>0.1642734531509835</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.07986987655227779</v>
+        <v>0.07932090972217719</v>
       </c>
     </row>
     <row r="28">
@@ -924,7 +924,7 @@
         <v>9.099814024257213</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>3.997612324007571</v>
+        <v>3.99761232400756</v>
       </c>
     </row>
     <row r="29">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>5.425427893983625</v>
+        <v>5.249972563059022</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.4265781146043005</v>
+        <v>-0.1844393702427206</v>
       </c>
     </row>
     <row r="30">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.97540445471618</v>
+        <v>12.90914103420554</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.818756644131598</v>
+        <v>7.990645782141279</v>
       </c>
     </row>
     <row r="31">
@@ -966,7 +966,7 @@
         <v>0.1078283440588641</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.04736975018807918</v>
+        <v>0.04736975018807905</v>
       </c>
     </row>
     <row r="32">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.06297930176215839</v>
+        <v>0.06099364993874712</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.00485652563469332</v>
+        <v>-0.001866430865090818</v>
       </c>
     </row>
     <row r="33">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1599227672802911</v>
+        <v>0.1585235695703445</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.09499552865248811</v>
+        <v>0.09835483688175588</v>
       </c>
     </row>
     <row r="34">
@@ -1012,7 +1012,7 @@
         <v>6.737413188125807</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>3.992319863956884</v>
+        <v>3.992319863956872</v>
       </c>
     </row>
     <row r="35">
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>2.839582463341201</v>
+        <v>3.047953194565439</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.2341964362208426</v>
+        <v>-0.4789095755188777</v>
       </c>
     </row>
     <row r="36">
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>10.58830889332037</v>
+        <v>10.57456624029183</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>7.874897900966134</v>
+        <v>8.290934896160946</v>
       </c>
     </row>
     <row r="37">
@@ -1054,7 +1054,7 @@
         <v>0.08186047950061648</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.0485072251408494</v>
+        <v>0.04850722514084926</v>
       </c>
     </row>
     <row r="38">
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.03436418290961672</v>
+        <v>0.03623621498852287</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.003195641518282429</v>
+        <v>-0.005515174842801102</v>
       </c>
     </row>
     <row r="39">
@@ -1079,10 +1079,10 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1324310615550764</v>
+        <v>0.1317855466932951</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.09779618043802585</v>
+        <v>0.1035860419526436</v>
       </c>
     </row>
     <row r="40">
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>6.263733565204785</v>
+        <v>6.174772750535809</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.449997170356646</v>
+        <v>-2.148679308480026</v>
       </c>
     </row>
     <row r="42">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>10.70552591093109</v>
+        <v>10.67468790660979</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.605340711412834</v>
+        <v>2.50675316820474</v>
       </c>
     </row>
     <row r="43">
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.08066766020307568</v>
+        <v>0.07947527323914896</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.03137893910966865</v>
+        <v>-0.02786259306014631</v>
       </c>
     </row>
     <row r="45">
@@ -1167,10 +1167,10 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1432728380279398</v>
+        <v>0.1429532393083634</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.03509367356941728</v>
+        <v>0.03333171611843648</v>
       </c>
     </row>
     <row r="46">
